--- a/experiment/設計メモ.xlsx
+++ b/experiment/設計メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65D6220-9C52-48D2-A7D8-DB4634446BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9B64E-92FA-4E2C-BDF7-1520617D9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="240" windowWidth="24855" windowHeight="15105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5845,9 +5845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BFFC8D-D8FF-4489-BB17-507B878805B6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5860,12 +5858,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B2" s="95" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="95" t="s">
         <v>242</v>
       </c>
     </row>

--- a/experiment/設計メモ.xlsx
+++ b/experiment/設計メモ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\@VBRT-NOCHK\!G\repos\pyscreenshot\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pyscreenshot\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9B64E-92FA-4E2C-BDF7-1520617D9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="240" windowWidth="24855" windowHeight="15105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="240" windowWidth="24855" windowHeight="15105"/>
   </bookViews>
   <sheets>
     <sheet name="機能と実装状況" sheetId="3" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="249">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -945,30 +944,6 @@
     <t>クイック設定</t>
     <rPh sb="4" eb="6">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マウスカーソルキャプチャーを有効</t>
-    <rPh sb="14" eb="16">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遅延キャプチャーを有効</t>
-    <rPh sb="0" eb="2">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トリミングを有効</t>
-    <rPh sb="6" eb="8">
-      <t>ユウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1795,11 +1770,39 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マウスカーソルキャプチャーする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅延キャプチャーをする</t>
+    <rPh sb="0" eb="2">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリミングをする</t>
+  </si>
+  <si>
+    <t>シーケンス番号のリセット</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNGファイル名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1934,7 +1937,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2224,13 +2227,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2471,9 +2513,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2518,6 +2557,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,13 +2596,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1448049</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2556,7 +2610,7 @@
         <xdr:cNvPr id="81" name="図 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5123845-2B00-4D7A-BF85-4CDC4F57F92F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5123845-2B00-4D7A-BF85-4CDC4F57F92F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,13 +2651,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1448049</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2611,7 +2665,7 @@
         <xdr:cNvPr id="82" name="図 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810D257F-3E35-4E07-A2EA-C2FE00759164}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{810D257F-3E35-4E07-A2EA-C2FE00759164}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,13 +2706,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1295627</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66993</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2666,7 +2720,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81BFC94-669E-075E-FCD0-8ED314DB6738}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F81BFC94-669E-075E-FCD0-8ED314DB6738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,23 +2759,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>557685</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>156565</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>113816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F211E93C-F66C-4DE3-8AAA-5ADBB8AEB6E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAF775C9-1B9A-4702-81A2-AFFE17DDA329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,61 +2785,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324100" y="4476750"/>
-          <a:ext cx="3386610" cy="2537815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>387175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>113816</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF775C9-1B9A-4702-81A2-AFFE17DDA329}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2817,13 +2816,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>387175</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>113816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2831,7 +2830,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541151E4-D177-4C17-9ECF-CBDD77F90448}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{541151E4-D177-4C17-9ECF-CBDD77F90448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2839,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2872,21 +2871,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47941</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>57275</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2219632</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76288009-A5AD-4543-93D8-BA19084D9BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10CD84BF-29BC-48D5-8852-DDB5E4197F80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,62 +2894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324100" y="7391400"/>
-          <a:ext cx="2267266" cy="895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2219632</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>114337</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CD84BF-29BC-48D5-8852-DDB5E4197F80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2982,13 +2926,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76520</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152466</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2996,7 +2940,7 @@
         <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660AD317-D382-4893-9B5D-DC83EB732C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{660AD317-D382-4893-9B5D-DC83EB732C46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +2949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3037,13 +2981,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>463375</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>113624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3051,10 +2995,108 @@
         <xdr:cNvPr id="11" name="図 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A27304-A040-429E-B6A1-F8CA81A612AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0A27304-A040-429E-B6A1-F8CA81A612AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="9963150"/>
+          <a:ext cx="3292300" cy="1980524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420052</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324099" y="4476746"/>
+          <a:ext cx="3248978" cy="2666048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48542</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3073,8 +3115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324100" y="9963150"/>
-          <a:ext cx="3292300" cy="1980524"/>
+          <a:off x="2324100" y="7391400"/>
+          <a:ext cx="2267867" cy="1105347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3111,7 +3153,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9A7687A-4788-4614-B54F-24C954F60DE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3771,12 +3813,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3795,7 +3835,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3807,13 +3847,13 @@
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3825,13 +3865,13 @@
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>168</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3843,13 +3883,13 @@
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3860,740 +3900,764 @@
         <v>154</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="76"/>
       <c r="D7" s="77"/>
       <c r="E7" s="78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F7" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="99" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="76"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="83" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="84"/>
+      <c r="H8" s="83" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="88" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="89" t="s">
-        <v>184</v>
+      <c r="H9" s="98" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="69">
-        <v>4</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>183</v>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="88" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C11" s="69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="72" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C12" s="69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="69">
+        <v>6</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="64">
+        <v>7</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="H14" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="73" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="64">
-        <v>7</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="66" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C15" s="76"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="G15" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="76"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="83" t="s">
+      <c r="H15" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="88" t="s">
+      <c r="H16" s="88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="64">
+        <v>8</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="64">
-        <v>8</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="H17" s="68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="76"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="G18" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="G16" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C17" s="76"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="83" t="s">
+      <c r="H18" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="88" t="s">
+      <c r="H19" s="88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C20" s="69">
+        <v>9</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="89" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C19" s="69">
-        <v>9</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C22" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C23" s="32"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C26" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C21" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C22" s="32"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C25" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="91" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="25"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="25"/>
-    </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="25" t="s">
-        <v>230</v>
-      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="25" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="25"/>
+      <c r="B30" s="25" t="s">
+        <v>228</v>
+      </c>
       <c r="C30" s="16"/>
-      <c r="D30" s="91"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="25" t="s">
-        <v>232</v>
-      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
+      <c r="D31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="25" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C32" s="16"/>
-      <c r="D32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
+      <c r="D32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="25"/>
+      <c r="B33" s="25" t="s">
+        <v>230</v>
+      </c>
       <c r="C33" s="16"/>
-      <c r="D33" s="91"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
+      <c r="D33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="25" t="s">
-        <v>234</v>
-      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
+      <c r="D34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="25" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
+      <c r="D35" s="90"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="25" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="91"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
+      <c r="D36" s="90"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="25"/>
+      <c r="B37" s="25" t="s">
+        <v>233</v>
+      </c>
       <c r="C37" s="16"/>
-      <c r="D37" s="91"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
+      <c r="D37" s="90"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="25"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="91"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
+      <c r="D38" s="90"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="25"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="91"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
+      <c r="D39" s="90"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="25"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="91"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
+      <c r="D40" s="90"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C41" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="91"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="90"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="25"/>
-      <c r="N41" s="91"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C42" s="16"/>
-      <c r="D42" s="91"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
+      <c r="C42" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="90"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="25"/>
-      <c r="N42" s="91"/>
+      <c r="N42" s="90"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C43" s="16"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
+      <c r="D43" s="90"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="91"/>
       <c r="H43" s="25"/>
-      <c r="N43" s="91"/>
+      <c r="N43" s="90"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C44" s="16"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="25"/>
-      <c r="N44" s="91"/>
+      <c r="N44" s="90"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C45" s="16"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="25"/>
+      <c r="N45" s="90"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C46" s="16"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C47" s="16"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C48" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="93"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="C49" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
       <c r="H49" s="25"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C50" s="93"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C51" s="93"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C52" s="93"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
       <c r="H52" s="25"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C53" s="93"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
       <c r="H53" s="25"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C54" s="93"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
       <c r="H54" s="25"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C55" s="93"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="91"/>
+      <c r="G55" s="91"/>
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C56" s="93"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C57" s="93"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C58" s="93"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C59" s="93"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
       <c r="H59" s="25"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C60" s="93"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
       <c r="H60" s="25"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C61" s="93"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C62" s="93"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C63" s="93"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C64" s="93"/>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="25"/>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C65" s="93"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C66" s="93"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C67" s="93"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C68" s="93"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="90"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="25"/>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C69" s="93"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C70" s="93"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="25"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C71" s="93"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C72" s="93"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="25"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C73" s="93"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C74" s="93"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C75" s="93"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C76" s="93"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
       <c r="H76" s="25"/>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C77" s="93"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C78" s="93"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C79" s="93"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C80" s="93"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="90"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
       <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C81" s="92"/>
+      <c r="D81" s="90"/>
+      <c r="E81" s="90"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="E82" s="90"/>
+      <c r="F82" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4604,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -4648,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>7</v>
@@ -4678,7 +4742,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>53</v>
@@ -4696,7 +4760,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>53</v>
@@ -4730,7 +4794,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>59</v>
@@ -4746,7 +4810,7 @@
         <v>58</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -4762,7 +4826,7 @@
         <v>61</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>36</v>
@@ -4780,7 +4844,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -4798,7 +4862,7 @@
         <v>64</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -4826,13 +4890,13 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>37</v>
@@ -4846,13 +4910,13 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>68</v>
@@ -4878,13 +4942,13 @@
         <v>16</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J16" s="11" t="s">
         <v>38</v>
@@ -4902,7 +4966,7 @@
         <v>70</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>39</v>
@@ -4928,13 +4992,13 @@
         <v>16</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>43</v>
@@ -4952,7 +5016,7 @@
         <v>72</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>44</v>
@@ -4970,7 +5034,7 @@
         <v>73</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -4986,7 +5050,7 @@
         <v>74</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J22" s="7"/>
     </row>
@@ -5002,7 +5066,7 @@
         <v>75</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -5030,7 +5094,7 @@
         <v>79</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>40</v>
@@ -5046,7 +5110,7 @@
         <v>80</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J26" s="43"/>
     </row>
@@ -5062,7 +5126,7 @@
         <v>76</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>41</v>
@@ -5078,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J28" s="7"/>
     </row>
@@ -5094,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>42</v>
@@ -5113,7 +5177,7 @@
     <row r="31" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G31" s="27"/>
       <c r="I31" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="3:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5191,7 +5255,7 @@
         <v>82</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>46</v>
@@ -5223,7 +5287,7 @@
         <v>83</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>85</v>
@@ -5241,7 +5305,7 @@
         <v>84</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>86</v>
@@ -5331,7 +5395,7 @@
         <v>89</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>48</v>
@@ -5347,7 +5411,7 @@
         <v>90</v>
       </c>
       <c r="I47" s="49" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J47" s="5"/>
     </row>
@@ -5369,7 +5433,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J49" s="25"/>
     </row>
@@ -5428,7 +5492,7 @@
         <v>135</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
@@ -5437,13 +5501,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
@@ -5452,7 +5516,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>137</v>
@@ -5465,13 +5529,13 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -5525,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5660,13 +5724,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>202</v>
-      </c>
       <c r="F13" s="51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -5693,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>203</v>
-      </c>
       <c r="F17" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -5832,7 +5896,7 @@
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5842,10 +5906,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BFFC8D-D8FF-4489-BB17-507B878805B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5854,37 +5918,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="95" t="s">
-        <v>241</v>
+      <c r="B2" s="94" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="95" t="s">
-        <v>242</v>
+      <c r="B4" s="94" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="95" t="s">
-        <v>246</v>
+      <c r="B6" s="94" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
